--- a/Inicio/Diccionario EDT.xlsx
+++ b/Inicio/Diccionario EDT.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408D51E4-1F85-4EFD-9455-2A5328938CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9BEE03-E9E5-4557-B9A2-49A7EFF1A26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="1" r:id="rId1"/>
     <sheet name="Planificación" sheetId="2" r:id="rId2"/>
     <sheet name="Ejecución" sheetId="3" r:id="rId3"/>
     <sheet name="Control y Seguimiento" sheetId="4" r:id="rId4"/>
-    <sheet name="Cierre" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="Cierre" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="355">
   <si>
     <t>Codigo EDT</t>
   </si>
@@ -120,9 +121,6 @@
     <t>Las dependencias entre tareas se identifican correctamente.</t>
   </si>
   <si>
-    <t>Limitaciones en la disponibilidad de recursos pueden afectar la planificación de tareas.</t>
-  </si>
-  <si>
     <t>Retrasos en la finalización de tareas.</t>
   </si>
   <si>
@@ -177,56 +175,18 @@
     <t>Plan de Calidad</t>
   </si>
   <si>
-    <t>El Plan de Calidad establece los estándares y procesos que se seguirán 
-para garantizar que el proyecto cumpla con los requisitos de calidad. 
-Incluye actividades de aseguramiento y control de calidad.</t>
-  </si>
-  <si>
-    <t>Los estándares de calidad se basan en las expectativas del cliente y las mejores prácticas de la industria</t>
-  </si>
-  <si>
-    <t>Los recursos asignados pueden influir en el establecimiento de estandares o procesos que garanticen la calidad del proyecto</t>
-  </si>
-  <si>
-    <t>No cumplir con los estándares de calidad establecidos.</t>
-  </si>
-  <si>
-    <t>Monitorear y ajustar los procesos de calidad según sea necesario.</t>
-  </si>
-  <si>
     <t>1.2.8</t>
   </si>
   <si>
     <t>Plan de Comunicación</t>
   </si>
   <si>
-    <t>Establece la estrategia de comunicación para el proyecto, incluyendo qué información se comunicará, a quién, cuándo y con qué frecuencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La estrategia de comunicación se ajustará según las necesidades del proyecto y de la empresa Farmacia Simple </t>
-  </si>
-  <si>
-    <t>Recursos asignados a esta tarea</t>
-  </si>
-  <si>
-    <t>Un mal plan de comunicacion puede llevar a malentendidos entre el equipo de trabajo y el cliente</t>
-  </si>
-  <si>
-    <t>Se debe asegurar que la estrategia de comunicación esté alineada con las expectativas de los stakeholders</t>
-  </si>
-  <si>
     <t>Matriz RACI</t>
   </si>
   <si>
     <t>Ejecución</t>
   </si>
   <si>
-    <t>La fase de Ejecución del proyecto implica la implementación de los planes elaborados durante la fase de Planificación. Esto quiere decir que en esta fase comienza el desarrollo e implementacion de los 4 modulos principales establecidos por Farmacia Simple SPA</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>1.4</t>
   </si>
   <si>
@@ -251,24 +211,6 @@
     <t>1.4.1</t>
   </si>
   <si>
-    <t>Controi integrado de Cambios</t>
-  </si>
-  <si>
-    <t>Corresponde al proceso de evaluar, aprobar o rechazar cambios propuestos en el proyecto. Incluye la revisión de solicitudes de cambio, su impacto en el alcance, tiempo y costo, y la toma de decisiones sobre su implementación.</t>
-  </si>
-  <si>
-    <t>Las solicitudes de cambio son evaluadas de manera oportuna.</t>
-  </si>
-  <si>
-    <t>Limitaciones de tiempo para la evaluación de cambios</t>
-  </si>
-  <si>
-    <t>Aprobación de cambios que tienen impactos no anticipados.</t>
-  </si>
-  <si>
-    <t>Se debe establecer un proceso claro y eficiente para la presentación y evaluación de solicitudes de cambio.</t>
-  </si>
-  <si>
     <t>1.4.2</t>
   </si>
   <si>
@@ -293,66 +235,12 @@
     <t>1.4.3</t>
   </si>
   <si>
-    <t>Control de Recursos</t>
-  </si>
-  <si>
-    <t>implica la supervisión y gestión de los recursos del proyecto, incluyendo personal, equipo, y cualquier otro recurso necesario</t>
-  </si>
-  <si>
-    <t>La asignación de recursos se basa en las necesidades actuales del proyecto.</t>
-  </si>
-  <si>
-    <t>Limitaciones presupuestarias para la adquisición de recursos adicionales.</t>
-  </si>
-  <si>
-    <t>Cambios inesperados en la disponibilidad de recursos clave.</t>
-  </si>
-  <si>
-    <t>Ajustar la asignación de recursos según sea necesario para cumplir con los objetivos del proyecto.</t>
-  </si>
-  <si>
     <t>1.4.4</t>
   </si>
   <si>
-    <t>Control de Costo y Presupuesto</t>
-  </si>
-  <si>
-    <t>Monitoreo y ajuste de los costos del proyecto para garantizar que se adhiera al presupuesto establecido.</t>
-  </si>
-  <si>
-    <t>Los costos reales se registran de manera precisa y oportuna.</t>
-  </si>
-  <si>
-    <t>Limitaciones presupuestarias para abordar cambios en los costos.</t>
-  </si>
-  <si>
-    <t>Variaciones imprevistas en los costos de recursos.</t>
-  </si>
-  <si>
-    <t>Establecer un proceso eficiente para el registro y seguimiento de los costos reales.</t>
-  </si>
-  <si>
     <t>1.4.5</t>
   </si>
   <si>
-    <t>Control integrado de los cambios</t>
-  </si>
-  <si>
-    <t>Documento que asegura que los cambios aprobados en el proyecto se implementen de manera efectiva y que se mantenga la integridad del proyecto en términos de alcance, tiempo, costo y calidad.</t>
-  </si>
-  <si>
-    <t>Las solicitudes de cambio aprobadas se implementan de acuerdo con el plan.</t>
-  </si>
-  <si>
-    <t>Limitaciones de tiempo para la implementación de cambios.</t>
-  </si>
-  <si>
-    <t>Falta de implementación efectiva de cambios aprobados.</t>
-  </si>
-  <si>
-    <t>Se debe monitorear y comunicar los impactos de los cambios implementados en todo el proyecto.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.5 </t>
   </si>
   <si>
@@ -362,31 +250,15 @@
     <t>La fase de Cierre del proyecto implica la finalización de todas las actividades y la entrega de los productos o servicios del proyecto. Incluye la documentación final y la evaluación del proyecto</t>
   </si>
   <si>
-    <t>Todos los entregables han sido revisados y aceptados.</t>
-  </si>
-  <si>
-    <t>Posible limitacion de recursos a la etapa de cierre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falta de aceptación final del cliente.
-</t>
-  </si>
-  <si>
     <t>Se debe documentar adecuadamente lecciones aprendidas y mejores prácticas para proyectos futuros</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
-  </si>
-  <si>
     <t>Check List del Proyecto</t>
   </si>
   <si>
     <t>Este documento nos indica si las actividades estipuladas dentro del EDT fueron logradas exitosamente o no</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.2 </t>
-  </si>
-  <si>
     <t>Acta de Cierre del Proyecto</t>
   </si>
   <si>
@@ -396,9 +268,6 @@
     <t>El cliente ha proporcionado su aprobación final.</t>
   </si>
   <si>
-    <t>Recursos limitados para la documentación y celebración del cierre del proyecto.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desaprobacion final del cliente </t>
   </si>
   <si>
@@ -406,11 +275,6 @@
   </si>
   <si>
     <t>Informe final del Proyecto</t>
-  </si>
-  <si>
-    <t>El Informe Final del Proyecto es un documento que resume los resultados, logros, lecciones aprendidas y otras conclusiones del proyecto. 
-Proporciona una visión general del rendimiento del proyecto y puede 
-incluir recomendaciones para futuros proyectos similares.</t>
   </si>
   <si>
     <t xml:space="preserve">Los resultados y logros del proyecto han sido revisados y validados.
@@ -509,6 +373,737 @@
 planificadas a lo largo del tiempo. Proporciona una 
 vista detallada de las fechas de inicio y finalización de cada tarea, 
 las dependencias entre ellas y la duración estimada.</t>
+  </si>
+  <si>
+    <t>Cambios en el alcance del proyecto pueden afectar el cronograma</t>
+  </si>
+  <si>
+    <t>1.2.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>Levantamiento de Requerimientos</t>
+  </si>
+  <si>
+    <t>Proceso para identificar y documentar las necesidades y expectativas de los usuarios y stakeholders para el desarrollo del software.</t>
+  </si>
+  <si>
+    <t>Limitaciones en tiempo y acceso a usuarios clave; ambigüedad en los requerimientos.</t>
+  </si>
+  <si>
+    <t>Requerimientos mal entendidos o incompletos pueden llevar a problemas en el desarrollo; cambios frecuentes en los requisitos.</t>
+  </si>
+  <si>
+    <t>Uso de técnicas efectivas para capturar requerimientos y asegurar la participación activa de los usuarios.</t>
+  </si>
+  <si>
+    <t>Los stakeholders están disponibles para entrevistas y discusiones</t>
+  </si>
+  <si>
+    <t>Toma de Requerimientos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad específica de recopilar información detallada sobre lo que se necesita del sistema. </t>
+  </si>
+  <si>
+    <t>Los participantes tienen conocimiento claro de sus necesidades y están dispuestos a colaborar.</t>
+  </si>
+  <si>
+    <t>Disponibilidad de los participantes y posible resistencia al cambio.</t>
+  </si>
+  <si>
+    <t>Información incompleta o inexacta puede llevar a malentendidos y a un producto final que no cumple con las expectativas.</t>
+  </si>
+  <si>
+    <t>Utilizar entrevistas, cuestionarios, y observaciones para obtener una visión completa.</t>
+  </si>
+  <si>
+    <t>Documento de Requerimientos de Software</t>
+  </si>
+  <si>
+    <t>Documento que detalla de manera formal los requerimientos del sistema a desarrollar.</t>
+  </si>
+  <si>
+    <t>Todos los requerimientos han sido correctamente recopilados y comprendidos.</t>
+  </si>
+  <si>
+    <t>Cambios en los requerimientos pueden requerir actualizaciones en el documento.</t>
+  </si>
+  <si>
+    <t>Inconsistencias o falta de claridad en el documento pueden llevar a malentendidos y errores en el desarrollo.</t>
+  </si>
+  <si>
+    <t>Asegurar la revisión y validación del documento por parte de los stakeholders.</t>
+  </si>
+  <si>
+    <t>Casos de Uso</t>
+  </si>
+  <si>
+    <t>Descripciones detalladas de cómo los usuarios interactuarán con el sistema para lograr objetivos específicos.</t>
+  </si>
+  <si>
+    <t>Los casos de uso reflejan correctamente las necesidades del usuario y el flujo de interacción con el sistema.</t>
+  </si>
+  <si>
+    <t>Dependencia de la precisión en los requisitos para crear casos de uso efectivos.</t>
+  </si>
+  <si>
+    <t>Casos de uso mal definidos pueden llevar a funcionalidades incorrectas o incompletas.</t>
+  </si>
+  <si>
+    <t>Validar los casos de uso con usuarios finales para asegurar que cubren todas</t>
+  </si>
+  <si>
+    <t>1.2.2.2</t>
+  </si>
+  <si>
+    <t>1.2.2.3</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desarrollo</t>
+  </si>
+  <si>
+    <t>1.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desarrollo Modulo A</t>
+  </si>
+  <si>
+    <t>1.3.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desarrollo Modulo B</t>
+  </si>
+  <si>
+    <t>1.3.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desarrollo Modulo C</t>
+  </si>
+  <si>
+    <t>1.3.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desarrollo Modulo D</t>
+  </si>
+  <si>
+    <t>1.3.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desarrollo Modulo E</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pruebas</t>
+  </si>
+  <si>
+    <t>1.3.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plan de Pruebas</t>
+  </si>
+  <si>
+    <t>1.3.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inventario de Pruebas</t>
+  </si>
+  <si>
+    <t>1.3.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ejecucion de los casos de prueba</t>
+  </si>
+  <si>
+    <t>1.3.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Informe final de pruebas</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marcha Blanca</t>
+  </si>
+  <si>
+    <t>1.3.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Despliegue del portal web en un entorno de producción.</t>
+  </si>
+  <si>
+    <t>1.3.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verificación de que el portal web funcione correctamente en un entorno real con usuarios reales. (Capacitacion)</t>
+  </si>
+  <si>
+    <t>1.3.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transición completa a la producción y operación normal del portal web</t>
+  </si>
+  <si>
+    <t>Validación de los Requisitos con los Usuarios</t>
+  </si>
+  <si>
+    <t>Proceso de revision de los requisitos y aprobrqacion del documento de requerimientos de software por los stakeholders principales</t>
+  </si>
+  <si>
+    <t>Los usuarios están disponibles para revisar y proporcionar retroalimentación.</t>
+  </si>
+  <si>
+    <t>Tiempo limitado para la validacion</t>
+  </si>
+  <si>
+    <t>Requerimientos incorrectos o no aprobados pueden resultar en un producto que no satisface las necesidades del usuario.</t>
+  </si>
+  <si>
+    <t>Asegurar un proceso claro para la revisión y validación de requerimientos, y documentar todas las aprobaciones.</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>Documento que define los estándares y criterios para asegurar la calidad del proyecto y sus entregables.</t>
+  </si>
+  <si>
+    <t>Los estándares de calidad están bien definidos y son alcanzables.</t>
+  </si>
+  <si>
+    <t>Limitaciones de recursos y tiempo pueden afectar la implementación de todos los estándares de calidad.</t>
+  </si>
+  <si>
+    <t>Falta de adherencia a los estándares de calidad puede resultar en un producto (Plataforma Web) defectuoso.</t>
+  </si>
+  <si>
+    <t>Incluir métricas claras y procedimientos para monitorear y garantizar la calidad durante todo el ciclo de vida del proyecto.</t>
+  </si>
+  <si>
+    <t>Plan de Costos</t>
+  </si>
+  <si>
+    <t>Documento que detalla los costos estimados del proyecto, incluyendo recursos, tiempo y otros gastos asociados.</t>
+  </si>
+  <si>
+    <t>Las estimaciones de costos son precisas y basadas en datos reales.</t>
+  </si>
+  <si>
+    <t>Cambios en el alcance del proyecto pueden afectar el presupuesto.</t>
+  </si>
+  <si>
+    <t>Exceder el presupuesto puede comprometer el éxito del proyecto.</t>
+  </si>
+  <si>
+    <t>Monitorear y controlar los costos durante el proyecto para mantenerse dentro del presupuesto.</t>
+  </si>
+  <si>
+    <t>Estrategia para asegurar la comunicación efectiva entre los miembros del equipo y otros stakeholders.</t>
+  </si>
+  <si>
+    <t>Los canales y métodos de comunicación elegidos son adecuados y accesibles para todos.</t>
+  </si>
+  <si>
+    <t>Diferencias entre las jornadas de trabajo de algunos stakeholders del proyecto</t>
+  </si>
+  <si>
+    <t>Comunicación ineficaz puede llevar a malentendidos y problemas en el proyecto.</t>
+  </si>
+  <si>
+    <t>Definir claramente los canales, frecuencia y responsables de la comunicación.</t>
+  </si>
+  <si>
+    <t>Diseño del Sistema</t>
+  </si>
+  <si>
+    <t>Actividad que define la estructura y componentes del sistema para cumplir con los requerimientos del proyecto.</t>
+  </si>
+  <si>
+    <t>Diseño deficiente puede llevar a problemas en el desarrollo y en el rendimiento del sistema.</t>
+  </si>
+  <si>
+    <t>Dependencia de la disponibilidad de tecnología y herramientas adecuadas</t>
+  </si>
+  <si>
+    <t>Se utilizaran diagramas de despliegue, componentes, ER y de arquitectura de Software</t>
+  </si>
+  <si>
+    <t>El diseño no debe ser ambiguo</t>
+  </si>
+  <si>
+    <t>Diseño de la estructura de la base de datos que soportará el sistema.</t>
+  </si>
+  <si>
+    <t>Requerimientos de datos son precisos y completos.</t>
+  </si>
+  <si>
+    <t>Limitaciones tecnológicas y de recursos pueden afectar el modelado.</t>
+  </si>
+  <si>
+    <t>Realizar revisiones y ajustes en el modelo de base de datos para asegurar su eficacia.</t>
+  </si>
+  <si>
+    <t>Un diseño deficiente puede afectar el rendimiento y la integridad de los datos.</t>
+  </si>
+  <si>
+    <t>Diagrama que muestra las entidades de la base de datos y sus relaciones.</t>
+  </si>
+  <si>
+    <t>Las entidades y relaciones están correctamente identificadas.</t>
+  </si>
+  <si>
+    <t>Puede ser difícil capturar todas las relaciones en un solo diagrama.</t>
+  </si>
+  <si>
+    <t>Errores en el diagrama pueden llevar a problemas en la implementación de la base de datos.</t>
+  </si>
+  <si>
+    <t>Asegurar la claridad y precisión del diagrama para facilitar su comprensión y uso.</t>
+  </si>
+  <si>
+    <t>Diagrama Entidad-Relación (ER)</t>
+  </si>
+  <si>
+    <t>Modelado de Base de Datos</t>
+  </si>
+  <si>
+    <t>1.2.8.1</t>
+  </si>
+  <si>
+    <t>1.2.8.1.1</t>
+  </si>
+  <si>
+    <t>Diseño de la Arquitectura de Software</t>
+  </si>
+  <si>
+    <t>1.2.8.2</t>
+  </si>
+  <si>
+    <t>Definición de la estructura y componentes del software, así como sus interacciones. Se centra basicamente en los diagramas del sistema</t>
+  </si>
+  <si>
+    <t>Tiempo limitado para el proceso de diagramacion</t>
+  </si>
+  <si>
+    <t>Un mal diseño de los diagramas puede tener consecuencias graves en la fase de ejecucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los diagramas seran diseñados y diagramados considerando todos los componentes, infraestructura, entre otros </t>
+  </si>
+  <si>
+    <t>1.2.8.2.2</t>
+  </si>
+  <si>
+    <t>1.2.8.2.1</t>
+  </si>
+  <si>
+    <t>1.2.8.2.3</t>
+  </si>
+  <si>
+    <t>Diagrama de Arquitectura del Software (MTV)</t>
+  </si>
+  <si>
+    <t>Diagrama que ilustra la arquitectura del software basada en el patrón Modelo-Vista-Template (MTV).</t>
+  </si>
+  <si>
+    <t>El patrón MTV se adapta bien a los requerimientos del proyecto.</t>
+  </si>
+  <si>
+    <t>Limitaciones en la capacidad de las herramientas para representar la arquitectura.</t>
+  </si>
+  <si>
+    <t>Un diagrama mal diseñado puede dificultar la comprensión y desarrollo del sistema.</t>
+  </si>
+  <si>
+    <t>Diagrama que muestra la organización y dependencia entre los componentes del software. Representa cómo los distintos módulos o componentes del sistema interactúan entre sí.</t>
+  </si>
+  <si>
+    <t>Los componentes están bien definidos y se entienden sus interacciones y dependencias.</t>
+  </si>
+  <si>
+    <t>Puede ser complejo mostrar todas las dependencias y relaciones en un diagrama de tamaño adecuado.</t>
+  </si>
+  <si>
+    <t>Representaciones inexactas o incompletas pueden llevar a errores en la integración y en el desarrollo.</t>
+  </si>
+  <si>
+    <t>Asegurar que el diagrama sea claro y esté bien documentado para facilitar su comprensión y mantenimiento. Revisar y actualizar el diagrama conforme evolucionan los componentes del sistema.</t>
+  </si>
+  <si>
+    <t>Diagrama que muestra la configuración del hardware y la distribución del software en el entorno de ejecución. Representa la disposición de los nodos (servidores, estaciones de trabajo, etc.) y cómo se distribuyen los componentes del sistema entre ellos.</t>
+  </si>
+  <si>
+    <t>La infraestructura de hardware está correctamente especificada y es suficiente para soportar el software.</t>
+  </si>
+  <si>
+    <t>Puede ser difícil prever todos los aspectos del entorno de despliegue durante la fase de diseño.</t>
+  </si>
+  <si>
+    <t>Una representación inexacta del despliegue puede causar problemas en la implementación y en la operación del sistema.</t>
+  </si>
+  <si>
+    <t>Asegurar que el diagrama de despliegue refleje adecuadamente las necesidades de infraestructura y sea revisado a medida que se definen y ajustan los requisitos del entorno de despliegue.</t>
+  </si>
+  <si>
+    <t>Diagrama de Componentes (UML)</t>
+  </si>
+  <si>
+    <t>Diagrama de Despliegue (UML)</t>
+  </si>
+  <si>
+    <t>Los diagramas UML deben ser diagramados con el programa StarUML y el modelo entidad relacion con Workbench</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que el diagrama sea claro y debe estar bien documentado</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>Tiempo limitado para la documentación del cierre del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documento que resume los resultados, logros, lecciones aprendidas y otras conclusiones del proyecto. 
+Proporciona una visión general del rendimiento del proyecto y puede 
+incluir recomendaciones para futuros proyectos similares.</t>
+  </si>
+  <si>
+    <t>Tiempo limitado para la documentación del informe final</t>
+  </si>
+  <si>
+    <t>La fase de Ejecución del proyecto implica la implementación de toda la documentacion elaborada durante la fase de Inicio y Planificación. Esto quiere decir que en esta fase comienza el desarrollo e implementacion de los 5 modulos principales establecidos</t>
+  </si>
+  <si>
+    <t>Control de Calidad</t>
+  </si>
+  <si>
+    <t>Seguimiento Cronograma</t>
+  </si>
+  <si>
+    <t>Gestion de Comunicaciones</t>
+  </si>
+  <si>
+    <t>Control de Alcance</t>
+  </si>
+  <si>
+    <t>Control de Costos</t>
+  </si>
+  <si>
+    <t>1.4.6</t>
+  </si>
+  <si>
+    <t>Proceso de creación de la plataforma basado en los requerimientos y diseño previamente definidos.</t>
+  </si>
+  <si>
+    <t>Los requerimientos y el diseño están completos y son correctos; los desarrolladores tienen las habilidades necesarias y los recursos adecuados.</t>
+  </si>
+  <si>
+    <t>Limitaciones de tiempo, recursos y posibles cambios en los requerimientos pueden afectar el desarrollo.</t>
+  </si>
+  <si>
+    <t>Errores en el código, retrasos en el desarrollo, o problemas técnicos pueden impactar negativamente en el cronograma del proyecto.</t>
+  </si>
+  <si>
+    <t>Implementar buenas prácticas de codificación, realizar revisiones de código y mantener una comunicación constante con el equipo de pruebas para asegurar que el desarrollo se alinee con los requerimientos</t>
+  </si>
+  <si>
+    <t>Creación y codificación del primer módulo de la plataforma (Login), conforme a los requisitos establecidos en el diseño.</t>
+  </si>
+  <si>
+    <t>Tiempo estimado para el desarrollo de este modulo</t>
+  </si>
+  <si>
+    <t>Desarrollo del segundo módulo de la plataforma (CRUD), siguiendo los requisitos específicos para este componente.</t>
+  </si>
+  <si>
+    <t>Los requerimientos para el Módulo A están claros y bien documentados</t>
+  </si>
+  <si>
+    <t>Los requerimientos para el Módulo B están claros y bien documentados</t>
+  </si>
+  <si>
+    <t>Los requerimientos para el Módulo C están claros y bien documentados</t>
+  </si>
+  <si>
+    <t>Los requerimientos para el Módulo D están claros y bien documentados</t>
+  </si>
+  <si>
+    <t>Los requerimientos para el Módulo E están claros y bien documentados</t>
+  </si>
+  <si>
+    <t>Errores de codificacion en el Módulo A pueden impactar en el funcionamiento general del sistema y en la integración con otros módulos.</t>
+  </si>
+  <si>
+    <t>Errores de codificacion en el Módulo B pueden impactar en el funcionamiento general del sistema y en la integración con otros módulos.</t>
+  </si>
+  <si>
+    <t>Errores de codificacion en el Módulo C pueden impactar en el funcionamiento general del sistema y en la integración con otros módulos.</t>
+  </si>
+  <si>
+    <t>Errores de codificacion en el Módulo D pueden impactar en el funcionamiento general del sistema y en la integración con otros módulos.</t>
+  </si>
+  <si>
+    <t>Errores de codificacion en el Módulo E pueden impactar en el funcionamiento general del sistema y en la integración con otros módulos.</t>
+  </si>
+  <si>
+    <t>Mantener una documentación clara y actualizada del Módulo C y realizar pruebas unitarias para asegurar su correcta implementación.</t>
+  </si>
+  <si>
+    <t>Mantener una documentación clara y actualizada del Módulo A y realizar pruebas unitarias para asegurar su correcta implementación.</t>
+  </si>
+  <si>
+    <t>Mantener una documentación clara y actualizada del Módulo B y realizar pruebas unitarias para asegurar su correcta implementación.</t>
+  </si>
+  <si>
+    <t>Mantener una documentación clara y actualizada del Módulo D y realizar pruebas unitarias para asegurar su correcta implementación.</t>
+  </si>
+  <si>
+    <t>Mantener una documentación clara y actualizada del Módulo E y realizar pruebas unitarias para asegurar su correcta implementación.</t>
+  </si>
+  <si>
+    <t>Codificación del tercer módulo de la plataforma (Gestion Usuarios), de acuerdo con los requisitos definidos.</t>
+  </si>
+  <si>
+    <t>Desarrollo del cuarto módulo (Metricas), siguiendo los requisitos establecidos en el diseño del sistema.</t>
+  </si>
+  <si>
+    <t>Codificación del quinto y último módulo del sistema (Busqueda), siguiendo las especificaciones del diseño.</t>
+  </si>
+  <si>
+    <t>Proceso de verificación y validación del software para asegurar que cumple con los requisitos y funciona correctamente. Se realiza el plan de pruebas, inventario de pruebas y se ejecutan los casos de prueba para elaborar el informe final de pruebas</t>
+  </si>
+  <si>
+    <t>Los 5 modulos estan desarrollados exitosamente</t>
+  </si>
+  <si>
+    <t>Tiempo y recursos asignados a esta fase</t>
+  </si>
+  <si>
+    <t>No elaborar correctamente cada uno de los documentos planificados para esta etapa</t>
+  </si>
+  <si>
+    <t>Asegurar una cobertura de pruebas adecuada, y documentar y corregir cualquier defecto encontrado durante las pruebas.</t>
+  </si>
+  <si>
+    <t>Un plan de pruebas deficiente puede resultar en una cobertura insuficiente y defectos no detectados.</t>
+  </si>
+  <si>
+    <t>Definir claramente los objetivos de las pruebas y los criterios de éxito para garantizar una evaluación completa del software.</t>
+  </si>
+  <si>
+    <t>Limitaciones de tiempo y recursos pueden afectar la ejecución completa de las pruebas.</t>
+  </si>
+  <si>
+    <t>Los casos de prueba estaran bien definidos y reflejan los requerimientos del sistema.</t>
+  </si>
+  <si>
+    <t>Documento que define la estrategia, los casos de prueba, el alcance para las pruebas del software.</t>
+  </si>
+  <si>
+    <t>Lista detallada de todas las pruebas a realizar, incluyendo casos de prueba, escenarios y criterios de aceptación.</t>
+  </si>
+  <si>
+    <t>Los casos de prueba están basados en requisitos claros y completos.</t>
+  </si>
+  <si>
+    <t>Cambios en los requisitos pueden requerir actualizaciones en el inventario de pruebas.</t>
+  </si>
+  <si>
+    <t>Pruebas no incluidas en el inventario pueden llevar a una cobertura de prueba insuficiente.</t>
+  </si>
+  <si>
+    <t>Asegurar que el inventario de pruebas esté actualizado y cubra todos los aspectos críticos del sistema.</t>
+  </si>
+  <si>
+    <t>Proceso de ejecutar los casos de prueba definidos para verificar la funcionalidad del software y detectar defectos.</t>
+  </si>
+  <si>
+    <t>Los entornos de prueba están configurados correctamente y los casos de prueba son representativos de escenarios reales.</t>
+  </si>
+  <si>
+    <t>Limitaciones de tiempo y recursos pueden afectar la cobertura de pruebas</t>
+  </si>
+  <si>
+    <t>Defectos no detectados durante la ejecución de pruebas pueden afectar la calidad del software.</t>
+  </si>
+  <si>
+    <t>Documentar todos los resultados de las pruebas y realizar seguimiento a los defectos encontrados para su corrección.</t>
+  </si>
+  <si>
+    <t>Documento que resume los resultados de las pruebas realizadas, incluyendo defectos encontrados, cobertura de pruebas y recomendaciones</t>
+  </si>
+  <si>
+    <t>Las pruebas se han realizado de acuerdo con el plan de pruebas y los resultados están bien documentados.</t>
+  </si>
+  <si>
+    <t>Dependencia de la calidad y exhaustividad de la ejecución de las pruebas.</t>
+  </si>
+  <si>
+    <t>Un informe final incompleto o inexacto puede llevar a una percepción errónea de la calidad del software.</t>
+  </si>
+  <si>
+    <t>Asegurar que el informe sea claro, completo y que incluya recomendaciones para la corrección de defectos y mejoras.</t>
+  </si>
+  <si>
+    <t>Proceso final de puesta en marcha del sistema en un entorno real, incluyendo la implementación, verificación y transición a producción.</t>
+  </si>
+  <si>
+    <t>El sistema está completamente desarrollado y probado, y el entorno de producción está listo.</t>
+  </si>
+  <si>
+    <t>Puede haber limitaciones en tiempo y recursos para realizar una transición completa.</t>
+  </si>
+  <si>
+    <t>Problemas inesperados en el entorno de producción pueden afectar el funcionamiento del sistema.</t>
+  </si>
+  <si>
+    <t>Planificar y coordinar cuidadosamente cada etapa de la marcha blanca para minimizar riesgos y asegurar una transición fluida.</t>
+  </si>
+  <si>
+    <t>Implementación del portal web en el entorno de producción final.</t>
+  </si>
+  <si>
+    <t>El entorno de producción está configurado y listo para recibir el portal web.</t>
+  </si>
+  <si>
+    <t>Disponibilidad del entorno de producción y posibles problemas de compatibilidad.</t>
+  </si>
+  <si>
+    <t>Problemas durante el despliegue pueden afectar la disponibilidad del portal web.</t>
+  </si>
+  <si>
+    <t>Asegurar un plan de despliegue detallado y realizar pruebas en el entorno de producción antes del lanzamiento completo.</t>
+  </si>
+  <si>
+    <t>onfirmación de que el portal web funciona adecuadamente con usuarios reales y capacitación de los usuarios si es necesario.</t>
+  </si>
+  <si>
+    <t>Los usuarios están disponibles para la prueba y la capacitación.</t>
+  </si>
+  <si>
+    <t>Posibles limitaciones de tiempo para capacitación y pruebas.</t>
+  </si>
+  <si>
+    <t>Problemas no detectados con usuarios reales pueden surgir durante la operación en vivo.</t>
+  </si>
+  <si>
+    <t>Realizar una capacitación adecuada para los usuarios finales</t>
+  </si>
+  <si>
+    <t>Proceso de mover el portal web a operación normal, asegurando que esté completamente integrado en el entorno de producción y que funcione correctamente.</t>
+  </si>
+  <si>
+    <t>Todos los problemas detectados durante la marcha blanca han sido solucionados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posibles limitaciones de tiempo </t>
+  </si>
+  <si>
+    <t>Documentar la finalizacion de esta ultima etapa que abarca la operación normal del portal web</t>
+  </si>
+  <si>
+    <t>Posibles problemas en la operación de la plataforma web</t>
+  </si>
+  <si>
+    <t>Monitoreo y aseguramiento de que los entregables del proyecto cumplan con los estándares de calidad definidos en el plan de calidad.</t>
+  </si>
+  <si>
+    <t>Los estándares de calidad están claramente definidos y aceptados por todas las partes interesadas.</t>
+  </si>
+  <si>
+    <t>La capacidad para implementar controles de calidad puede verse afectada por el tiempo y los recursos disponibles.</t>
+  </si>
+  <si>
+    <t>Problemas de calidad no detectados pueden impactar la funcionalidad y satisfacción del cliente.</t>
+  </si>
+  <si>
+    <t>Realizar auditorías de calidad regulares, implementar procesos de revisión y corrección, y mantener una comunicación abierta con el equipo sobre problemas de calidad.</t>
+  </si>
+  <si>
+    <t>Monitoreo continuo del avance del proyecto en relación con el cronograma planificado, identificando desviaciones y tomando medidas correctivas.</t>
+  </si>
+  <si>
+    <t>El cronograma es preciso y actualizado, y todos los miembros del equipo reportan el progreso de manera oportuna.</t>
+  </si>
+  <si>
+    <t>Cambios en el alcance del proyecto o problemas inesperados pueden afectar el cronograma.</t>
+  </si>
+  <si>
+    <t>Desviaciones significativas del cronograma pueden causar retrasos en el proyecto y aumentar los costos.</t>
+  </si>
+  <si>
+    <t>Actualizar el cronograma regularmente, identificar y abordar rápidamente las desviaciones, y ajustar el plan según sea necesario.</t>
+  </si>
+  <si>
+    <t>Revision y monitereo del cumplimiento del plan de comunicaciones definido en la etapa de Planificacion</t>
+  </si>
+  <si>
+    <t>El plan de comunicaciones se ha estado aplicando a lo largo del proyecto</t>
+  </si>
+  <si>
+    <t>Tiempo y recursos disponibles para la revision y gestion del plan de comunicaciones</t>
+  </si>
+  <si>
+    <t>Hallazgo de comunicaciones inadecuadas o tardías que puedan llevar a malentendidos y falta de alineación entre los miembros del equipo</t>
+  </si>
+  <si>
+    <t>Mantener un plan de comunicación claro, utilizar herramientas efectivas para la comunicación y revisar regularmente la efectividad de la comunicación en el proyecto.</t>
+  </si>
+  <si>
+    <t>Monitoreo y gestión de los cambios en el alcance del proyecto para asegurar que se mantenga alineado con los objetivos iniciales y que no se produzcan desviaciones no controladas.</t>
+  </si>
+  <si>
+    <t>El alcance del proyecto está claramente definido y cualquier cambio es documentado y aprobado.</t>
+  </si>
+  <si>
+    <t>Los cambios en el alcance pueden afectar el cronograma, los costos y los recursos del proyecto.</t>
+  </si>
+  <si>
+    <t>Cambios no gestionados en el alcance pueden llevar a un aumento en los costos, retrasos en el cronograma y desviaciones en los objetivos del proyecto.</t>
+  </si>
+  <si>
+    <t>Implementar un proceso formal de gestión de cambios en el alcance, y revisar y aprobar cambios con todas las partes interesadas antes de su implementación.</t>
+  </si>
+  <si>
+    <t>Monitoreo y gestión de los costos del proyecto para asegurar que se mantengan dentro del presupuesto aprobado y se controlen los gastos.</t>
+  </si>
+  <si>
+    <t>Los costos están bien definidos y presupuestados, y se realiza un seguimiento regular de los gastos</t>
+  </si>
+  <si>
+    <t>Los costos pueden variar debido a cambios en el alcance, problemas imprevistos o variaciones en los precios de los recursos.</t>
+  </si>
+  <si>
+    <t>Exceder el presupuesto puede comprometer la viabilidad del proyecto y la satisfacción del cliente.</t>
+  </si>
+  <si>
+    <t>Realizar un seguimiento detallado de los costos, comparar regularmente los costos reales con el presupuesto, y tomar medidas correctivas cuando sea necesario para mantener el proyecto dentro del presupuesto.</t>
+  </si>
+  <si>
+    <t>Todos los entregables del proyecto están definidos claramente.</t>
+  </si>
+  <si>
+    <t>La lista de verificación debe ser lo suficientemente detallada para cubrir todos los aspectos del proyecto sin ser excesivamente extensa.</t>
+  </si>
+  <si>
+    <t>Elementos no incluidos en la lista de verificación pueden ser pasados por alto, lo que podría llevar a problemas no detectados.</t>
+  </si>
+  <si>
+    <t>Asegurarse de que la lista de verificación cubra todos los aspectos críticos del proyecto, incluyendo la finalización de entregables, cumplimiento de requisitos, calidad, documentación y aprobación de los stakeholders.</t>
   </si>
 </sst>
 </file>
@@ -518,11 +1113,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,15 +1139,15 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -599,74 +1201,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -677,6 +1272,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -963,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -996,19 +1616,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1046,10 +1666,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1075,22 +1695,22 @@
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>140</v>
+        <v>49</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1119,7 +1739,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>20</v>
@@ -1128,7 +1748,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>22</v>
@@ -1157,22 +1777,22 @@
         <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>147</v>
+        <v>85</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1195,25 +1815,25 @@
     </row>
     <row r="8" spans="1:25" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>153</v>
+        <v>86</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -2593,19 +3213,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y996"/>
+  <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" customWidth="1"/>
     <col min="3" max="3" width="62.44140625" customWidth="1"/>
     <col min="4" max="4" width="39.5546875" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" customWidth="1"/>
@@ -2663,7 +3283,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -2696,19 +3316,19 @@
         <v>27</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2729,27 +3349,27 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>38</v>
+    <row r="4" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>119</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -2770,27 +3390,27 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>45</v>
+    <row r="5" spans="1:25" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -2811,27 +3431,27 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
     </row>
-    <row r="6" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>52</v>
+    <row r="6" spans="1:25" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>132</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -2852,27 +3472,27 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:25" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>59</v>
+    <row r="7" spans="1:25" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -2893,14 +3513,28 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+    <row r="8" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>176</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2920,8 +3554,28 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2941,14 +3595,28 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+    <row r="10" spans="1:25" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2968,14 +3636,28 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+    <row r="11" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>183</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2995,14 +3677,28 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+    <row r="12" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -3022,14 +3718,28 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+    <row r="13" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>194</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -3049,14 +3759,28 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+    <row r="14" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>200</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3076,14 +3800,28 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+    <row r="15" spans="1:25" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>204</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -3103,14 +3841,28 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+    <row r="16" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>210</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -3130,14 +3882,28 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+    <row r="17" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>241</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -3157,2694 +3923,28 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y934"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="65.5546875" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" customWidth="1"/>
-    <col min="8" max="25" width="9.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>45352</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-    </row>
-    <row r="3" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="62.44140625" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" customWidth="1"/>
-    <col min="8" max="25" width="9.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-    </row>
-    <row r="3" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-    </row>
-    <row r="4" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-    </row>
-    <row r="5" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-    </row>
-    <row r="6" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-    </row>
-    <row r="7" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-    </row>
-    <row r="8" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-    </row>
-    <row r="9" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-    </row>
-    <row r="10" spans="1:25" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-    </row>
-    <row r="11" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-    </row>
-    <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-    </row>
-    <row r="13" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-    </row>
-    <row r="14" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-    </row>
-    <row r="15" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-    </row>
-    <row r="16" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-    </row>
-    <row r="17" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-    </row>
-    <row r="18" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+    <row r="18" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>242</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -5864,14 +3964,28 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+    <row r="19" spans="1:25" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>233</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -5891,14 +4005,28 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
     </row>
-    <row r="20" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+    <row r="20" spans="1:25" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -5919,31 +4047,13 @@
       <c r="Y20" s="6"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
@@ -5972,9 +4082,7 @@
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6943,38 +5051,37 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y1000"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y934"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="62.44140625" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="65.5546875" customWidth="1"/>
+    <col min="4" max="4" width="49.88671875" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1"/>
     <col min="7" max="7" width="50.5546875" customWidth="1"/>
     <col min="8" max="25" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -7014,28 +5121,20 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>112</v>
-      </c>
+    <row r="2" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>45352</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -7055,20 +5154,1401 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>114</v>
+    <row r="3" spans="1:25" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Y1001"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="62.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" customWidth="1"/>
+    <col min="8" max="25" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+    </row>
+    <row r="2" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -7088,27 +6568,27 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>112</v>
+    <row r="4" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" t="s">
+        <v>330</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -7129,27 +6609,27 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>127</v>
+    <row r="5" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G5" t="s">
+        <v>335</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -7170,10 +6650,27 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
     </row>
-    <row r="6" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="23" t="s">
-        <v>63</v>
+    <row r="6" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -7194,8 +6691,28 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>345</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -7215,14 +6732,28 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+    <row r="8" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -7242,9 +6773,9 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+    <row r="9" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -7269,9 +6800,9 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
+    <row r="10" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -7296,7 +6827,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7378,8 +6909,8 @@
       <c r="Y13" s="6"/>
     </row>
     <row r="14" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7405,8 +6936,8 @@
       <c r="Y14" s="6"/>
     </row>
     <row r="15" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -7566,7 +7097,7 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -7594,7 +7125,31 @@
       <c r="Y21" s="6"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
@@ -7623,7 +7178,9 @@
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+    </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8592,6 +8149,1683 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F4E96-A5E8-420C-AE2B-83E5878F1A55}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Y1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="62.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" customWidth="1"/>
+    <col min="8" max="25" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+    </row>
+    <row r="2" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+    </row>
+    <row r="7" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+    </row>
+    <row r="10" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+    </row>
+    <row r="11" spans="1:25" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+    </row>
+    <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+    </row>
+    <row r="13" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+    </row>
+    <row r="14" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+    </row>
+    <row r="15" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+    </row>
+    <row r="16" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+    </row>
+    <row r="17" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+    </row>
+    <row r="18" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+    </row>
+    <row r="19" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+    </row>
+    <row r="20" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+    </row>
+    <row r="21" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/Inicio/Diccionario EDT.xlsx
+++ b/Inicio/Diccionario EDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9BEE03-E9E5-4557-B9A2-49A7EFF1A26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D455BF8-7A0F-4C42-BB89-FD801AA9BD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="1" r:id="rId1"/>
@@ -1201,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1257,9 +1257,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1515,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1621,7 +1618,7 @@
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1697,19 +1694,19 @@
       <c r="B5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>96</v>
       </c>
       <c r="H5" s="6"/>
@@ -1779,16 +1776,16 @@
       <c r="B7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>103</v>
       </c>
       <c r="G7" t="s">
@@ -1820,19 +1817,19 @@
       <c r="B8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>109</v>
       </c>
       <c r="H8" s="6"/>
@@ -3216,10 +3213,10 @@
   <dimension ref="A1:Y999"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3356,19 +3353,19 @@
       <c r="B4" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>119</v>
       </c>
       <c r="H4" s="6"/>
@@ -3391,25 +3388,25 @@
       <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>126</v>
       </c>
       <c r="H5" s="6"/>
@@ -3432,25 +3429,25 @@
       <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="1:25" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>132</v>
       </c>
       <c r="H6" s="6"/>
@@ -3473,25 +3470,25 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:25" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>138</v>
       </c>
       <c r="H7" s="6"/>
@@ -3513,26 +3510,26 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>176</v>
       </c>
       <c r="H8" s="6"/>
@@ -3555,25 +3552,25 @@
       <c r="Y8" s="6"/>
     </row>
     <row r="9" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="6"/>
@@ -3596,25 +3593,25 @@
       <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="6"/>
@@ -3637,25 +3634,25 @@
       <c r="Y10" s="6"/>
     </row>
     <row r="11" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>183</v>
       </c>
       <c r="H11" s="6"/>
@@ -3678,25 +3675,25 @@
       <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>189</v>
       </c>
       <c r="H12" s="6"/>
@@ -3719,25 +3716,25 @@
       <c r="Y12" s="6"/>
     </row>
     <row r="13" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>194</v>
       </c>
       <c r="H13" s="6"/>
@@ -3760,25 +3757,25 @@
       <c r="Y13" s="6"/>
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>200</v>
       </c>
       <c r="H14" s="6"/>
@@ -3801,25 +3798,25 @@
       <c r="Y14" s="6"/>
     </row>
     <row r="15" spans="1:25" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="25" t="s">
         <v>204</v>
       </c>
       <c r="H15" s="6"/>
@@ -3842,25 +3839,25 @@
       <c r="Y15" s="6"/>
     </row>
     <row r="16" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>210</v>
       </c>
       <c r="H16" s="6"/>
@@ -3883,25 +3880,25 @@
       <c r="Y16" s="6"/>
     </row>
     <row r="17" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>241</v>
       </c>
       <c r="H17" s="6"/>
@@ -3924,25 +3921,25 @@
       <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="30" t="s">
         <v>242</v>
       </c>
       <c r="H18" s="6"/>
@@ -3964,26 +3961,26 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="1:25" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:25" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="25" t="s">
         <v>233</v>
       </c>
       <c r="H19" s="6"/>
@@ -4006,25 +4003,25 @@
       <c r="Y19" s="6"/>
     </row>
     <row r="20" spans="1:25" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="25" t="s">
         <v>238</v>
       </c>
       <c r="H20" s="6"/>
@@ -4048,12 +4045,12 @@
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
@@ -5061,11 +5058,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y934"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5128,7 +5125,7 @@
       <c r="B2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>248</v>
       </c>
       <c r="D2" s="6"/>
@@ -5161,19 +5158,19 @@
       <c r="B3" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5184,16 +5181,16 @@
       <c r="B4" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>268</v>
       </c>
       <c r="G4" s="25" t="s">
@@ -5207,16 +5204,16 @@
       <c r="B5" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>269</v>
       </c>
       <c r="G5" s="25" t="s">
@@ -5233,13 +5230,13 @@
       <c r="C6" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>270</v>
       </c>
       <c r="G6" s="25" t="s">
@@ -5256,13 +5253,13 @@
       <c r="C7" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>271</v>
       </c>
       <c r="G7" s="25" t="s">
@@ -5270,22 +5267,22 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>272</v>
       </c>
       <c r="G8" s="25" t="s">
@@ -5293,39 +5290,39 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>289</v>
       </c>
       <c r="E10" s="25" t="s">
@@ -5339,10 +5336,10 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>158</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -5362,140 +5359,140 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="25" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="25" t="s">
         <v>324</v>
       </c>
     </row>
@@ -6427,10 +6424,10 @@
   <dimension ref="A1:Y1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6487,10 +6484,10 @@
       <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -6528,7 +6525,7 @@
       <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -6568,26 +6565,26 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="21" t="s">
         <v>330</v>
       </c>
       <c r="H4" s="6"/>
@@ -6609,26 +6606,26 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="21" t="s">
         <v>335</v>
       </c>
       <c r="H5" s="6"/>
@@ -6651,10 +6648,10 @@
       <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>251</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -6692,10 +6689,10 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>252</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -6733,10 +6730,10 @@
       <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -8172,11 +8169,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8266,7 +8263,7 @@
       <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -8278,7 +8275,7 @@
       <c r="D3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>245</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -8307,19 +8304,19 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>244</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>246</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>247</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -8347,8 +8344,8 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -8357,16 +8354,16 @@
       <c r="C5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="21" t="s">
         <v>354</v>
       </c>
       <c r="H5" s="6"/>

--- a/Inicio/Diccionario EDT.xlsx
+++ b/Inicio/Diccionario EDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D455BF8-7A0F-4C42-BB89-FD801AA9BD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAB93A5-362E-4113-99C7-F14D5EA6805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="348">
   <si>
     <t>Codigo EDT</t>
   </si>
@@ -705,27 +705,9 @@
     <t>1.2.8.2.2</t>
   </si>
   <si>
-    <t>1.2.8.2.1</t>
-  </si>
-  <si>
     <t>1.2.8.2.3</t>
   </si>
   <si>
-    <t>Diagrama de Arquitectura del Software (MTV)</t>
-  </si>
-  <si>
-    <t>Diagrama que ilustra la arquitectura del software basada en el patrón Modelo-Vista-Template (MTV).</t>
-  </si>
-  <si>
-    <t>El patrón MTV se adapta bien a los requerimientos del proyecto.</t>
-  </si>
-  <si>
-    <t>Limitaciones en la capacidad de las herramientas para representar la arquitectura.</t>
-  </si>
-  <si>
-    <t>Un diagrama mal diseñado puede dificultar la comprensión y desarrollo del sistema.</t>
-  </si>
-  <si>
     <t>Diagrama que muestra la organización y dependencia entre los componentes del software. Representa cómo los distintos módulos o componentes del sistema interactúan entre sí.</t>
   </si>
   <si>
@@ -763,9 +745,6 @@
   </si>
   <si>
     <t>Los diagramas UML deben ser diagramados con el programa StarUML y el modelo entidad relacion con Workbench</t>
-  </si>
-  <si>
-    <t>Se debe asegurar que el diagrama sea claro y debe estar bien documentado</t>
   </si>
   <si>
     <t>1.5.1</t>
@@ -1512,7 +1491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3210,13 +3189,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y999"/>
+  <dimension ref="A1:Y998"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3899,7 +3878,7 @@
         <v>219</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -3920,27 +3899,27 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
     </row>
-    <row r="18" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>222</v>
+    <row r="18" spans="1:25" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>221</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="E18" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="F18" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="G18" s="25" t="s">
         <v>227</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>242</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -3961,27 +3940,27 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="1:25" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="E19" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>233</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -4002,55 +3981,17 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
     </row>
-    <row r="20" spans="1:25" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="11"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
@@ -4076,9 +4017,7 @@
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5047,7 +4986,6 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5058,7 +4996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y934"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5126,7 +5064,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5159,19 +5097,19 @@
         <v>142</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5182,19 +5120,19 @@
         <v>144</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E4" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>268</v>
-      </c>
       <c r="G4" s="25" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -5205,19 +5143,19 @@
         <v>146</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>269</v>
-      </c>
       <c r="G5" s="25" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5228,19 +5166,19 @@
         <v>148</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5251,19 +5189,19 @@
         <v>150</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5274,19 +5212,19 @@
         <v>152</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5297,19 +5235,19 @@
         <v>154</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
@@ -5320,19 +5258,19 @@
         <v>156</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5343,19 +5281,19 @@
         <v>158</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5366,19 +5304,19 @@
         <v>160</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5389,19 +5327,19 @@
         <v>162</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5412,19 +5350,19 @@
         <v>164</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.3">
@@ -5435,19 +5373,19 @@
         <v>166</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -5458,19 +5396,19 @@
         <v>168</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5481,19 +5419,19 @@
         <v>170</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6427,7 +6365,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="A1:G8"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6570,22 +6508,22 @@
         <v>59</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -6611,22 +6549,22 @@
         <v>66</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -6652,22 +6590,22 @@
         <v>67</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -6693,22 +6631,22 @@
         <v>68</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -6731,25 +6669,25 @@
     </row>
     <row r="8" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -8264,7 +8202,7 @@
     </row>
     <row r="3" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>75</v>
@@ -8276,7 +8214,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>78</v>
@@ -8305,19 +8243,19 @@
     </row>
     <row r="4" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>82</v>
@@ -8355,16 +8293,16 @@
         <v>74</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
